--- a/ThesisData/output/stoxx_stat.xlsx
+++ b/ThesisData/output/stoxx_stat.xlsx
@@ -438,13 +438,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0001243747319544392</v>
+        <v>-0.0001234629060598564</v>
       </c>
       <c r="C2">
         <v>-2.23989039275928</v>
       </c>
       <c r="D2">
-        <v>-0.09954972562112438</v>
+        <v>-0.0995249943451703</v>
       </c>
       <c r="E2">
         <v>-0.0130699021935657</v>
@@ -453,10 +453,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0131328386630775</v>
+        <v>0.013131976362443</v>
       </c>
       <c r="H2">
-        <v>0.09787444337653498</v>
+        <v>0.09784051995248119</v>
       </c>
       <c r="I2">
         <v>1.66261053950508</v>
@@ -467,25 +467,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>410.0355021505605</v>
+        <v>411.0832039899008</v>
       </c>
       <c r="C3">
-        <v>-27213.224</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>40.8122</v>
+        <v>41.75012</v>
       </c>
       <c r="E3">
-        <v>148.96</v>
+        <v>149.017</v>
       </c>
       <c r="F3">
-        <v>220.337</v>
+        <v>220.378</v>
       </c>
       <c r="G3">
-        <v>334.81</v>
+        <v>334.861</v>
       </c>
       <c r="H3">
-        <v>1938.468999999996</v>
+        <v>1938.810599999995</v>
       </c>
       <c r="I3">
         <v>257524.493</v>
